--- a/05.cleaning/03.invoice.no/invoice_comments.xlsx
+++ b/05.cleaning/03.invoice.no/invoice_comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/05.cleaning/03.invoice.no/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{F154EE58-7B62-4EAA-B18A-37061D5F6016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1043DD3B-921A-4253-B234-8EF1045779D2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{F154EE58-7B62-4EAA-B18A-37061D5F6016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{620709DB-1A5A-407D-BD48-6D10EB073956}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39C8BA8D-8D4C-4610-BD14-ED76337DC738}"/>
   </bookViews>
